--- a/predicted images.xlsx
+++ b/predicted images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mutia\Downloads\Computer Vision Papers\Wireless Capsule Endoscopy\Vision_Quest_team_wce_challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02BDB9-4710-40E4-9A9D-D7856AE16098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EC9014-6151-4B15-9169-3F0C0640FEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,9 +1726,6 @@
     <t>Predicted class label for each image</t>
   </si>
   <si>
-    <t>BBox [x_,y_,x^,y^]</t>
-  </si>
-  <si>
     <t>[ 57.139 41.418 73.068 54.799]</t>
   </si>
   <si>
@@ -2138,6 +2135,9 @@
   </si>
   <si>
     <t>Confidence Level</t>
+  </si>
+  <si>
+    <t>BBox [x_min,y_min,x_max,y_max]</t>
   </si>
 </sst>
 </file>
@@ -2549,11 +2549,11 @@
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>566</v>
       </c>
@@ -2561,10 +2561,10 @@
         <v>567</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>568</v>
+        <v>705</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2635,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D8" s="2">
         <v>0.25962457</v>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D19" s="2">
         <v>0.74363667</v>
@@ -2783,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D22" s="2">
         <v>0.54795830000000001</v>
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D25" s="2">
         <v>0.27268039999999999</v>
@@ -3163,7 +3163,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -3171,13 +3171,13 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D60" s="2">
         <v>0.3525489</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D61" s="2">
         <v>0.80124055999999999</v>
@@ -3311,7 +3311,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>74</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D74" s="2">
         <v>0.55167370000000004</v>
@@ -3335,7 +3335,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>76</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D76" s="2">
         <v>0.74551820000000002</v>
@@ -3369,7 +3369,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>79</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D79" s="2">
         <v>0.65561689999999995</v>
@@ -3903,7 +3903,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>132</v>
       </c>
@@ -3911,13 +3911,13 @@
         <v>3</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D132" s="2">
         <v>0.28064874000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>133</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D133" s="2">
         <v>0.73385940000000005</v>
@@ -3941,7 +3941,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>135</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D135" s="2">
         <v>0.38681536999999999</v>
@@ -3985,7 +3985,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>139</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D139" s="2">
         <v>0.74116420000000005</v>
@@ -4009,7 +4009,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>141</v>
       </c>
@@ -4017,13 +4017,13 @@
         <v>3</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D141" s="2">
         <v>0.33249970000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>142</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D142" s="2">
         <v>0.44332597000000001</v>
@@ -4097,7 +4097,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>149</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D149" s="2">
         <v>0.32037437000000002</v>
@@ -4141,7 +4141,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>153</v>
       </c>
@@ -4149,13 +4149,13 @@
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D153" s="2">
         <v>0.79609479999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>154</v>
       </c>
@@ -4163,13 +4163,13 @@
         <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D154" s="2">
         <v>0.56120159999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>155</v>
       </c>
@@ -4177,13 +4177,13 @@
         <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D155" s="2">
         <v>0.6657419</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>156</v>
       </c>
@@ -4191,13 +4191,13 @@
         <v>3</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D156" s="2">
         <v>0.57210019999999995</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>157</v>
       </c>
@@ -4205,13 +4205,13 @@
         <v>3</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D157" s="2">
         <v>0.34823470000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>158</v>
       </c>
@@ -4219,13 +4219,13 @@
         <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D158" s="2">
         <v>0.58642419999999995</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>159</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>3</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D159" s="2">
         <v>0.66421074000000002</v>
@@ -4249,7 +4249,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>161</v>
       </c>
@@ -4257,13 +4257,13 @@
         <v>3</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D161" s="2">
         <v>0.33025947</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>162</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D162" s="2">
         <v>0.57937989999999995</v>
@@ -4297,7 +4297,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>165</v>
       </c>
@@ -4305,13 +4305,13 @@
         <v>3</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D165" s="2">
         <v>0.29470607999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>166</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>3</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D166" s="2">
         <v>0.40172892999999998</v>
@@ -4405,7 +4405,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>175</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>3</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D175" s="2">
         <v>0.36029040000000001</v>
@@ -4429,7 +4429,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>177</v>
       </c>
@@ -4437,13 +4437,13 @@
         <v>3</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D177" s="2">
         <v>0.30984669999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>178</v>
       </c>
@@ -4451,13 +4451,13 @@
         <v>3</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D178" s="2">
         <v>0.38218210000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>179</v>
       </c>
@@ -4465,13 +4465,13 @@
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D179" s="2">
         <v>0.53443693999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>180</v>
       </c>
@@ -4479,13 +4479,13 @@
         <v>3</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D180" s="2">
         <v>0.87792194000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>181</v>
       </c>
@@ -4493,13 +4493,13 @@
         <v>3</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D181" s="2">
         <v>0.3677879</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>182</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D182" s="2">
         <v>0.32287054999999998</v>
@@ -4523,7 +4523,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>184</v>
       </c>
@@ -4531,13 +4531,13 @@
         <v>3</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D184" s="2">
         <v>0.33882030000000002</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>185</v>
       </c>
@@ -4545,13 +4545,13 @@
         <v>3</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D185" s="2">
         <v>0.50565910000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>186</v>
       </c>
@@ -4559,13 +4559,13 @@
         <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D186" s="2">
         <v>0.59514480000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>187</v>
       </c>
@@ -4573,13 +4573,13 @@
         <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D187" s="2">
         <v>0.53791929999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>188</v>
       </c>
@@ -4587,13 +4587,13 @@
         <v>3</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D188" s="2">
         <v>0.51233244</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>189</v>
       </c>
@@ -4601,13 +4601,13 @@
         <v>1</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D189" s="2">
         <v>0.5405413</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>190</v>
       </c>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D190" s="2">
         <v>0.56776179999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>191</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D191" s="2">
         <v>0.65320533999999997</v>
@@ -4645,7 +4645,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>193</v>
       </c>
@@ -4653,13 +4653,13 @@
         <v>3</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D193" s="2">
         <v>0.32015586000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>194</v>
       </c>
@@ -4667,13 +4667,13 @@
         <v>3</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D194" s="2">
         <v>0.70575595000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>195</v>
       </c>
@@ -4681,13 +4681,13 @@
         <v>3</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D195" s="2">
         <v>0.9391969</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>196</v>
       </c>
@@ -4695,13 +4695,13 @@
         <v>3</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D196" s="2">
         <v>0.72336876000000006</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>197</v>
       </c>
@@ -4709,13 +4709,13 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D197" s="2">
         <v>0.71883989999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>198</v>
       </c>
@@ -4723,13 +4723,13 @@
         <v>3</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D198" s="2">
         <v>0.78084624000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>199</v>
       </c>
@@ -4737,13 +4737,13 @@
         <v>3</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D199" s="2">
         <v>0.72909455999999995</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>200</v>
       </c>
@@ -4751,13 +4751,13 @@
         <v>3</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D200" s="2">
         <v>0.71628219999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>201</v>
       </c>
@@ -4765,13 +4765,13 @@
         <v>3</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D201" s="2">
         <v>0.34152985000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>202</v>
       </c>
@@ -4779,13 +4779,13 @@
         <v>3</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D202" s="2">
         <v>0.679253</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>203</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D203" s="2">
         <v>0.39404677999999999</v>
@@ -4809,7 +4809,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>205</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>3</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D205" s="2">
         <v>0.59107869999999996</v>
@@ -4873,7 +4873,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>211</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D211" s="2">
         <v>0.44670144000000001</v>
@@ -5127,7 +5127,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>236</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D236" s="2">
         <v>0.65960600000000003</v>
@@ -5231,7 +5231,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>246</v>
       </c>
@@ -5239,13 +5239,13 @@
         <v>3</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D246" s="2">
         <v>0.74472623999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>247</v>
       </c>
@@ -5253,13 +5253,13 @@
         <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D247" s="2">
         <v>0.78896743000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>248</v>
       </c>
@@ -5267,13 +5267,13 @@
         <v>3</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D248" s="2">
         <v>0.82084420000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>249</v>
       </c>
@@ -5281,13 +5281,13 @@
         <v>3</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D249" s="2">
         <v>0.74791425</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>250</v>
       </c>
@@ -5295,13 +5295,13 @@
         <v>3</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D250" s="2">
         <v>0.3987793</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>251</v>
       </c>
@@ -5309,13 +5309,13 @@
         <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D251" s="2">
         <v>0.70338624999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>252</v>
       </c>
@@ -5323,13 +5323,13 @@
         <v>1</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D252" s="2">
         <v>0.25482895999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>253</v>
       </c>
@@ -5337,13 +5337,13 @@
         <v>3</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D253" s="2">
         <v>0.45836339999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>254</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D254" s="2">
         <v>0.65843940000000001</v>
@@ -5367,7 +5367,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>256</v>
       </c>
@@ -5375,13 +5375,13 @@
         <v>3</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D256" s="2">
         <v>0.86373509999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>257</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D257" s="2">
         <v>0.71198945999999996</v>
@@ -5455,7 +5455,7 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>264</v>
       </c>
@@ -5463,13 +5463,13 @@
         <v>3</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D264" s="2">
         <v>0.50689419999999996</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>265</v>
       </c>
@@ -5477,13 +5477,13 @@
         <v>3</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D265" s="2">
         <v>0.25065022999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>266</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>3</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D266" s="2">
         <v>0.39189276000000001</v>
@@ -5587,7 +5587,7 @@
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>276</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>3</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D276" s="2">
         <v>0.36029040000000001</v>
@@ -5611,7 +5611,7 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>278</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D278" s="2">
         <v>0.70905070000000003</v>
@@ -5705,7 +5705,7 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>287</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>3</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D287" s="2">
         <v>0.34014250000000001</v>
@@ -5739,7 +5739,7 @@
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>290</v>
       </c>
@@ -5747,13 +5747,13 @@
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D290" s="2">
         <v>0.31186876000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>291</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D291" s="2">
         <v>0.42584914000000001</v>
@@ -5797,7 +5797,7 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>295</v>
       </c>
@@ -5805,13 +5805,13 @@
         <v>3</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D295" s="2">
         <v>0.66551610000000005</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>296</v>
       </c>
@@ -5819,13 +5819,13 @@
         <v>3</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D296" s="2">
         <v>0.66690260000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>297</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>3</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D297" s="2">
         <v>0.62641910000000001</v>
@@ -5849,7 +5849,7 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>299</v>
       </c>
@@ -5857,13 +5857,13 @@
         <v>3</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D299" s="2">
         <v>0.35829428000000002</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>300</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D300" s="2">
         <v>0.70356669999999999</v>
@@ -5997,7 +5997,7 @@
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>313</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>3</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D313" s="2">
         <v>0.54616980000000004</v>
@@ -6131,7 +6131,7 @@
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>326</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D326" s="2">
         <v>0.57463280000000005</v>
@@ -6175,7 +6175,7 @@
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>330</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D330" s="2">
         <v>0.88928205000000005</v>
@@ -6219,7 +6219,7 @@
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>334</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D334" s="2">
         <v>0.33438414</v>
@@ -6253,7 +6253,7 @@
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>337</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>3</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D337" s="2">
         <v>0.62719040000000004</v>
@@ -6357,7 +6357,7 @@
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>347</v>
       </c>
@@ -6365,13 +6365,13 @@
         <v>3</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D347" s="2">
         <v>0.32494961999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>348</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D348" s="2">
         <v>0.48939442999999999</v>
@@ -6395,7 +6395,7 @@
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>350</v>
       </c>
@@ -6403,13 +6403,13 @@
         <v>3</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D350" s="2">
         <v>0.57581645000000004</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>351</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>3</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D351" s="2">
         <v>0.44631802999999998</v>
@@ -6433,7 +6433,7 @@
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>353</v>
       </c>
@@ -6441,13 +6441,13 @@
         <v>3</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D353" s="2">
         <v>0.71632899999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>354</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>3</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D354" s="2">
         <v>0.46703183999999998</v>
@@ -6521,7 +6521,7 @@
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>361</v>
       </c>
@@ -6529,13 +6529,13 @@
         <v>3</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D361" s="2">
         <v>0.78421819999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>362</v>
       </c>
@@ -6543,13 +6543,13 @@
         <v>3</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D362" s="2">
         <v>0.73742189999999996</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>363</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>3</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D363" s="2">
         <v>0.44843146</v>
@@ -6583,7 +6583,7 @@
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>366</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>3</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D366" s="2">
         <v>0.30417252</v>
@@ -6647,7 +6647,7 @@
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>372</v>
       </c>
@@ -6655,13 +6655,13 @@
         <v>1</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D372" s="2">
         <v>0.85209243999999995</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>373</v>
       </c>
@@ -6669,13 +6669,13 @@
         <v>1</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D373" s="2">
         <v>0.78981847000000005</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>374</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>3</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D374" s="2">
         <v>0.79412793999999998</v>
@@ -6719,7 +6719,7 @@
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>378</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D378" s="2">
         <v>0.35462169999999998</v>
@@ -6773,7 +6773,7 @@
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
     </row>
-    <row r="383" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>383</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D383" s="2">
         <v>0.27283775999999998</v>
@@ -6807,7 +6807,7 @@
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>386</v>
       </c>
@@ -6815,13 +6815,13 @@
         <v>3</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D386" s="2">
         <v>0.25761624999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>387</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D387" s="2">
         <v>0.57050529999999999</v>
@@ -6885,7 +6885,7 @@
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>393</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>3</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D393" s="2">
         <v>0.53761727000000004</v>
@@ -6909,7 +6909,7 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>395</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>3</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D395" s="2">
         <v>0.47069713000000002</v>
@@ -7003,7 +7003,7 @@
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
     </row>
-    <row r="404" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>404</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>3</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D404" s="2">
         <v>0.48100929999999997</v>
@@ -7087,7 +7087,7 @@
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
     </row>
-    <row r="412" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>412</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D412" s="2">
         <v>0.34664139999999999</v>
@@ -7141,7 +7141,7 @@
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>417</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D417" s="2">
         <v>0.49319664000000002</v>
@@ -7175,7 +7175,7 @@
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>420</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D420" s="2">
         <v>0.62898670000000001</v>
@@ -7299,7 +7299,7 @@
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
     </row>
-    <row r="432" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>432</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>3</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D432" s="2">
         <v>0.34832879999999999</v>
@@ -7333,7 +7333,7 @@
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
     </row>
-    <row r="435" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>435</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D435" s="2">
         <v>0.26627967000000002</v>
@@ -7367,7 +7367,7 @@
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
     </row>
-    <row r="438" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>438</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>1</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D438" s="2">
         <v>0.49869823000000002</v>
@@ -7401,7 +7401,7 @@
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
     </row>
-    <row r="441" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>441</v>
       </c>
@@ -7409,13 +7409,13 @@
         <v>1</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D441" s="2">
         <v>0.82447910000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>442</v>
       </c>
@@ -7423,13 +7423,13 @@
         <v>3</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D442" s="2">
         <v>0.55450840000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>443</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D443" s="2">
         <v>0.31733030000000001</v>
@@ -7613,7 +7613,7 @@
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
     </row>
-    <row r="461" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>461</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>3</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D461" s="2">
         <v>0.57903559999999998</v>
@@ -7637,7 +7637,7 @@
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
     </row>
-    <row r="463" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>463</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D463" s="2">
         <v>0.56169290000000005</v>
@@ -7721,7 +7721,7 @@
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
     </row>
-    <row r="471" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6" t="s">
         <v>471</v>
       </c>
@@ -7729,13 +7729,13 @@
         <v>3</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D471" s="2">
         <v>0.62617590000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>472</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>3</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D472" s="2">
         <v>0.60414650000000003</v>
@@ -7759,7 +7759,7 @@
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>474</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>3</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D474" s="2">
         <v>0.36468992</v>
@@ -7803,7 +7803,7 @@
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
     </row>
-    <row r="478" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>478</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>3</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D478" s="2">
         <v>0.37294992999999999</v>
@@ -7877,7 +7877,7 @@
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
     </row>
-    <row r="485" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
         <v>485</v>
       </c>
@@ -7885,13 +7885,13 @@
         <v>3</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D485" s="2">
         <v>0.79768366000000002</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="6" t="s">
         <v>486</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D486" s="2">
         <v>0.73321234999999996</v>
@@ -7985,7 +7985,7 @@
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
     </row>
-    <row r="495" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
         <v>495</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>3</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D495" s="2">
         <v>0.58833120000000005</v>
@@ -8019,7 +8019,7 @@
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
     </row>
-    <row r="498" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="6" t="s">
         <v>498</v>
       </c>
@@ -8027,13 +8027,13 @@
         <v>3</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D498" s="2">
         <v>0.65325844</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
         <v>499</v>
       </c>
@@ -8041,13 +8041,13 @@
         <v>1</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D499" s="2">
         <v>0.55133370000000004</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="6" t="s">
         <v>500</v>
       </c>
@@ -8055,13 +8055,13 @@
         <v>3</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D500" s="2">
         <v>0.47667484999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="6" t="s">
         <v>501</v>
       </c>
@@ -8069,13 +8069,13 @@
         <v>3</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D501" s="2">
         <v>0.869313</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="6" t="s">
         <v>502</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>3</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D502" s="2">
         <v>0.38624528000000002</v>
@@ -8169,7 +8169,7 @@
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
     </row>
-    <row r="511" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="6" t="s">
         <v>511</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D511" s="2">
         <v>0.41474939999999999</v>
@@ -8463,7 +8463,7 @@
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
     </row>
-    <row r="540" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="6" t="s">
         <v>540</v>
       </c>
@@ -8471,13 +8471,13 @@
         <v>1</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D540" s="2">
         <v>0.27814640000000002</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="6" t="s">
         <v>541</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D541" s="2">
         <v>0.37664293999999998</v>
@@ -8501,7 +8501,7 @@
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
     </row>
-    <row r="543" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="6" t="s">
         <v>543</v>
       </c>
@@ -8509,13 +8509,13 @@
         <v>1</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D543" s="2">
         <v>0.62781465000000003</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="6" t="s">
         <v>544</v>
       </c>
@@ -8523,13 +8523,13 @@
         <v>1</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D544" s="2">
         <v>0.81527877000000004</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="6" t="s">
         <v>545</v>
       </c>
@@ -8537,13 +8537,13 @@
         <v>1</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D545" s="2">
         <v>0.29705872999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="6" t="s">
         <v>546</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D546" s="2">
         <v>0.80113435</v>
@@ -8567,7 +8567,7 @@
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
     </row>
-    <row r="548" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="6" t="s">
         <v>548</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>3</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D548" s="2">
         <v>0.41193859999999999</v>
@@ -8601,7 +8601,7 @@
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
     </row>
-    <row r="551" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="6" t="s">
         <v>551</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>3</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D551" s="2">
         <v>0.40687275000000001</v>
